--- a/biology/Botanique/Helictotrichon_pratense/Helictotrichon_pratense.xlsx
+++ b/biology/Botanique/Helictotrichon_pratense/Helictotrichon_pratense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helictotrichon pratense, aussi appelée selon les auteurs  Avenula pratensis ou Helictochloa pratensis, est l'Avoine des prés, espèce de plante herbacée monocotylédone de la famille des Poaceae. 
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette graminée pérenne a des tiges mesurant généralement de 30 à 80 cm de hauteur (valeurs extrêmes : de 4 à 100 cm), minces et à port érigé[2]. Les feuilles sont aplaties et mesurent de 4 à 30 cm de long pour 1 à 5 mm de large[2]. Elle présente deux ligules de 2 à 5 (voire 7) mm à leur base[2].
-L'inflorescence mesure de 5 à 16 cm de long, voire jusqu'à 20 cm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette graminée pérenne a des tiges mesurant généralement de 30 à 80 cm de hauteur (valeurs extrêmes : de 4 à 100 cm), minces et à port érigé. Les feuilles sont aplaties et mesurent de 4 à 30 cm de long pour 1 à 5 mm de large. Elle présente deux ligules de 2 à 5 (voire 7) mm à leur base.
+L'inflorescence mesure de 5 à 16 cm de long, voire jusqu'à 20 cm.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Avoine des prés est une espèce des pelouses calcaires oligotrophes pâturées[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Avoine des prés est une espèce des pelouses calcaires oligotrophes pâturées.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est protégée dans le Nord-Pas-de-Calais[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est protégée dans le Nord-Pas-de-Calais.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (9 juillet 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (9 juillet 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Helictotrichon pratense subsp. gonzaloi (Sennen) Mateo &amp; Figuerola
 sous-espèce Helictotrichon pratense subsp. hirtifolium (Podp.) Dostál
 sous-espèce Helictotrichon pratense subsp. ibericum (St.-Yves) Mateo &amp; Figuerola</t>
